--- a/data/compliance/results.xlsx
+++ b/data/compliance/results.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Willful defaulter should not be allowed for loan restructuring.</t>
+          <t>Loan restructuring/rescheduling may only be considered if the bank is confident that the loan can be recovered.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a) The bank will not restructure any account of willful defaulter.</t>
+          <t>The bank can restructure/reschedule the loan considering the future outlook, business viability, borrower’s co-operative attitude and good intention, security position etc. The facility shall not be provided to willful defaulters and blacklisted customers.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The bank's provision explicitly states that it will not restructure any account of a willful defaulter, which aligns perfectly with the NRB provision. Therefore, the bank is in full compliance with the NRB provision regarding willful defaulters and loan restructuring.</t>
+          <t>The bank's provisions explicitly state that loan restructuring/rescheduling will be considered based on factors such as future outlook, business viability, borrower’s co-operative attitude, good intention, and security position. These factors align with the NRB provision that requires the bank to be confident in the loan's recoverability before considering restructuring/rescheduling. Additionally, the bank specifies that the facility will not be provided to willful defaulters and blacklisted customers, further ensuring that only viable entities are considered for restructuring.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Section: DO’S AND DON’TS, Page Number: 2</t>
+          <t>Section: EXECUTIVE SUMMARY, Page Number: 1</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The bank's provision explicitly states that it will not capitalize interest as part of the re-scheduling or restructuring package, which aligns perfectly with the NRB provision. Therefore, the bank is in full compliance with the NRB directive regarding the capitalization of interest during the restructuring process.</t>
+          <t>The bank's provision explicitly states that it will not capitalize interest as part of the re-scheduling or restructuring package, which aligns perfectly with the NRB provision. Therefore, the bank is in full compliance with the NRB directive regarding the capitalization of interest in the restructuring process.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Section: DO’S AND DON’TS, RESTRUCTURING PROCESS, Page Number: 2</t>
+          <t>Section: RESTRUCTURING PROCESS, DO’S AND DON’TS, Page Number: 2</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The bank's provision explicitly states that share loans will not be considered for restructuring or rescheduling unless there is a specific provision in the NRB regulation allowing it. This aligns with the NRB provision that loans provided against shares are not allowed for restructuring/rescheduling. Therefore, the bank is in full compliance with the NRB provision.</t>
+          <t>The bank's provision explicitly states that share loans will not be considered for restructuring or rescheduling unless there is a specific provision to do so as per NRB regulation. This aligns with the NRB provision that loans provided against shares are not allowed for restructuring/rescheduling. Therefore, the bank is in full compliance with the NRB provision.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The provided document does not specify any timeframe for the flexibility of restructuring/rescheduling loans. It only mentions that the bank can restructure/reschedule loans based on certain criteria and that the process will be in line with NRB guidelines and the bank's policies. There is no mention of a 5-year flexibility period.</t>
+          <t>The provided document does not specify any time frame for the flexibility of restructuring/rescheduling loans. It only mentions that the bank can restructure/reschedule loans based on certain criteria and that the process will be in line with NRB guidelines and the bank's policies. Since there is no mention of a 5-year flexibility period, the bank has not complied with the specified NRB provision.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
